--- a/公务员/江西省/2019/2019宜春入围考试名单.xlsx
+++ b/公务员/江西省/2019/2019宜春入围考试名单.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinwang/Desktop/job/公务员/江西省/2019/2019宜春入围考试名单.xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinwang/Desktop/job/公务员/江西省/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B172D75A-9E76-BE43-A886-D976A57E43D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A008DD5A-0F6E-324E-B1C6-E2025185AC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16260" xr2:uid="{D91275F5-B61C-6A40-A9E3-1501C3350233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$M$472</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6399,13 +6402,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EAF2A8-FE24-0140-8C40-BD0D1DBE058B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K390" sqref="K390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="37.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17">
       <c r="A1" s="18" t="s">
@@ -6482,7 +6500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6521,7 +6539,7 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6562,7 +6580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6601,7 +6619,7 @@
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6640,7 +6658,7 @@
       </c>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6679,7 +6697,7 @@
       </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6720,7 +6738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6761,7 +6779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6800,7 +6818,7 @@
       </c>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6841,7 +6859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6880,7 +6898,7 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6919,7 +6937,7 @@
       </c>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6960,7 +6978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7001,7 +7019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7040,7 +7058,7 @@
       </c>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7079,7 +7097,7 @@
       </c>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7120,7 +7138,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7159,7 +7177,7 @@
       </c>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7198,7 +7216,7 @@
       </c>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -7239,7 +7257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -7280,7 +7298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -7321,7 +7339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -7362,7 +7380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -7401,7 +7419,7 @@
       </c>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -7440,7 +7458,7 @@
       </c>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -7481,7 +7499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -7522,7 +7540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -7561,7 +7579,7 @@
       </c>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -7600,7 +7618,7 @@
       </c>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -7682,7 +7700,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -7721,7 +7739,7 @@
       </c>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -7762,7 +7780,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -7803,7 +7821,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -7842,7 +7860,7 @@
       </c>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -7883,7 +7901,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -7922,7 +7940,7 @@
       </c>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -7961,7 +7979,7 @@
       </c>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="6">
         <v>38</v>
       </c>
@@ -8000,7 +8018,7 @@
       </c>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="6">
         <v>39</v>
       </c>
@@ -8041,7 +8059,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -8080,7 +8098,7 @@
       </c>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="6">
         <v>41</v>
       </c>
@@ -8119,7 +8137,7 @@
       </c>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -8158,7 +8176,7 @@
       </c>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -8199,7 +8217,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="6">
         <v>44</v>
       </c>
@@ -8238,7 +8256,7 @@
       </c>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="6">
         <v>45</v>
       </c>
@@ -8279,7 +8297,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -8320,7 +8338,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="6">
         <v>47</v>
       </c>
@@ -8361,7 +8379,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="6">
         <v>48</v>
       </c>
@@ -8402,7 +8420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="6">
         <v>49</v>
       </c>
@@ -8443,7 +8461,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -8484,7 +8502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="6">
         <v>51</v>
       </c>
@@ -8523,7 +8541,7 @@
       </c>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="6">
         <v>52</v>
       </c>
@@ -8564,7 +8582,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="6">
         <v>53</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" s="6">
         <v>54</v>
       </c>
@@ -8648,249 +8666,251 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="6">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>243</v>
+        <v>1557</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>244</v>
+        <v>1558</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>245</v>
+        <v>1572</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>246</v>
+        <v>1573</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="9">
-        <v>129.47999999999999</v>
+        <v>114.03</v>
       </c>
       <c r="I58" s="9">
-        <v>79.84</v>
+        <v>76.66</v>
       </c>
       <c r="J58" s="9">
-        <v>289.16000000000003</v>
+        <v>267.35000000000002</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>247</v>
+        <v>1574</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>248</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="6">
-        <v>56</v>
+        <v>374</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>249</v>
+        <v>1557</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>244</v>
+        <v>1558</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>250</v>
+        <v>1570</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>251</v>
+        <v>1571</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H59" s="9">
-        <v>127.26</v>
+        <v>117.99</v>
       </c>
       <c r="I59" s="9">
-        <v>80.91</v>
+        <v>76.819999999999993</v>
       </c>
       <c r="J59" s="9">
-        <v>289.08</v>
+        <v>271.63</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="M59" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="6">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>252</v>
+        <v>1557</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>244</v>
+        <v>1558</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>253</v>
+        <v>1566</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>254</v>
+        <v>1567</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="9">
-        <v>124.93</v>
+        <v>119.16</v>
       </c>
       <c r="I60" s="9">
-        <v>78.150000000000006</v>
+        <v>77.739999999999995</v>
       </c>
       <c r="J60" s="9">
-        <v>281.23</v>
+        <v>274.64</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>255</v>
+        <v>1568</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>256</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="6">
-        <v>58</v>
+        <v>370</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>257</v>
+        <v>1550</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>244</v>
+        <v>1551</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>47</v>
+        <v>1552</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>258</v>
+        <v>1553</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>259</v>
+        <v>1554</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H61" s="9">
-        <v>125.37</v>
+        <v>119.79</v>
       </c>
       <c r="I61" s="9">
-        <v>80.58</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="J61" s="9">
-        <v>286.52999999999997</v>
+        <v>280.08999999999997</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>260</v>
+        <v>1555</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>261</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="6">
-        <v>59</v>
+        <v>371</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>262</v>
+        <v>1557</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>244</v>
+        <v>1558</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>263</v>
+        <v>1559</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>264</v>
+        <v>1560</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H62" s="9">
-        <v>134.31</v>
+        <v>120.65</v>
       </c>
       <c r="I62" s="9">
-        <v>79.17</v>
+        <v>78.66</v>
       </c>
       <c r="J62" s="9">
-        <v>292.64999999999998</v>
+        <v>277.97000000000003</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>265</v>
+        <v>1561</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>207</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="6">
-        <v>60</v>
+        <v>407</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>266</v>
+        <v>1671</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>244</v>
+        <v>1558</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>267</v>
+        <v>1675</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>268</v>
+        <v>1676</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="9">
-        <v>188.81</v>
+        <v>121.13</v>
       </c>
       <c r="I63" s="9">
-        <v>75.7</v>
+        <v>76.34</v>
       </c>
       <c r="J63" s="9">
-        <v>264.51</v>
+        <v>273.81</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>92</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>112</v>
+        <v>1677</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="6">
         <v>61</v>
       </c>
@@ -8931,7 +8951,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="6">
         <v>62</v>
       </c>
@@ -8972,7 +8992,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="6">
         <v>63</v>
       </c>
@@ -9013,7 +9033,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="6">
         <v>64</v>
       </c>
@@ -9052,7 +9072,7 @@
       </c>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="6">
         <v>65</v>
       </c>
@@ -9091,7 +9111,7 @@
       </c>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="6">
         <v>66</v>
       </c>
@@ -9130,7 +9150,7 @@
       </c>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="6">
         <v>67</v>
       </c>
@@ -9169,7 +9189,7 @@
       </c>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="6">
         <v>68</v>
       </c>
@@ -9208,7 +9228,7 @@
       </c>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="6">
         <v>69</v>
       </c>
@@ -9247,7 +9267,7 @@
       </c>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="6">
         <v>70</v>
       </c>
@@ -9286,7 +9306,7 @@
       </c>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="6">
         <v>71</v>
       </c>
@@ -9325,7 +9345,7 @@
       </c>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="6">
         <v>72</v>
       </c>
@@ -9366,7 +9386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="6">
         <v>73</v>
       </c>
@@ -9407,7 +9427,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="6">
         <v>74</v>
       </c>
@@ -9446,7 +9466,7 @@
       </c>
       <c r="M77" s="8"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="6">
         <v>75</v>
       </c>
@@ -9485,7 +9505,7 @@
       </c>
       <c r="M78" s="8"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="6">
         <v>76</v>
       </c>
@@ -9524,7 +9544,7 @@
       </c>
       <c r="M79" s="8"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="6">
         <v>77</v>
       </c>
@@ -9565,7 +9585,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="6">
         <v>78</v>
       </c>
@@ -9606,7 +9626,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="6">
         <v>79</v>
       </c>
@@ -9645,7 +9665,7 @@
       </c>
       <c r="M82" s="8"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="6">
         <v>80</v>
       </c>
@@ -9684,7 +9704,7 @@
       </c>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="6">
         <v>81</v>
       </c>
@@ -9725,7 +9745,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="6">
         <v>82</v>
       </c>
@@ -9766,7 +9786,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="6">
         <v>83</v>
       </c>
@@ -9807,7 +9827,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="6">
         <v>84</v>
       </c>
@@ -9848,7 +9868,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="6">
         <v>85</v>
       </c>
@@ -9889,7 +9909,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="6">
         <v>86</v>
       </c>
@@ -9930,7 +9950,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="6">
         <v>87</v>
       </c>
@@ -9971,7 +9991,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="6">
         <v>88</v>
       </c>
@@ -10012,7 +10032,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="6">
         <v>89</v>
       </c>
@@ -10053,7 +10073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="6">
         <v>90</v>
       </c>
@@ -10094,7 +10114,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="6">
         <v>91</v>
       </c>
@@ -10135,7 +10155,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="6">
         <v>92</v>
       </c>
@@ -10176,7 +10196,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="6">
         <v>93</v>
       </c>
@@ -10217,7 +10237,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" s="6">
         <v>94</v>
       </c>
@@ -10258,7 +10278,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="6">
         <v>95</v>
       </c>
@@ -10299,7 +10319,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="6">
         <v>96</v>
       </c>
@@ -10338,7 +10358,7 @@
       </c>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="6">
         <v>97</v>
       </c>
@@ -10379,7 +10399,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="6">
         <v>98</v>
       </c>
@@ -10420,7 +10440,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="6">
         <v>99</v>
       </c>
@@ -10461,7 +10481,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="6">
         <v>100</v>
       </c>
@@ -10500,7 +10520,7 @@
       </c>
       <c r="M103" s="8"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" s="6">
         <v>101</v>
       </c>
@@ -10541,7 +10561,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" s="6">
         <v>102</v>
       </c>
@@ -10582,7 +10602,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" s="6">
         <v>103</v>
       </c>
@@ -10623,7 +10643,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="6">
         <v>104</v>
       </c>
@@ -10664,7 +10684,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108" s="6">
         <v>105</v>
       </c>
@@ -10703,7 +10723,7 @@
       </c>
       <c r="M108" s="8"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" hidden="1">
       <c r="A109" s="6">
         <v>106</v>
       </c>
@@ -10742,7 +10762,7 @@
       </c>
       <c r="M109" s="8"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" s="6">
         <v>107</v>
       </c>
@@ -10783,7 +10803,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" s="6">
         <v>108</v>
       </c>
@@ -10822,7 +10842,7 @@
       </c>
       <c r="M111" s="8"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112" s="6">
         <v>109</v>
       </c>
@@ -10861,7 +10881,7 @@
       </c>
       <c r="M112" s="8"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" s="6">
         <v>110</v>
       </c>
@@ -10902,7 +10922,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" s="6">
         <v>111</v>
       </c>
@@ -10941,7 +10961,7 @@
       </c>
       <c r="M114" s="8"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" s="6">
         <v>112</v>
       </c>
@@ -10980,7 +11000,7 @@
       </c>
       <c r="M115" s="8"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="6">
         <v>113</v>
       </c>
@@ -11021,7 +11041,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="6">
         <v>114</v>
       </c>
@@ -11062,7 +11082,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="6">
         <v>115</v>
       </c>
@@ -11103,7 +11123,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="6">
         <v>116</v>
       </c>
@@ -11144,7 +11164,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="6">
         <v>117</v>
       </c>
@@ -11183,7 +11203,7 @@
       </c>
       <c r="M120" s="8"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" s="6">
         <v>118</v>
       </c>
@@ -11222,7 +11242,7 @@
       </c>
       <c r="M121" s="8"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" s="6">
         <v>119</v>
       </c>
@@ -11263,7 +11283,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" s="6">
         <v>120</v>
       </c>
@@ -11302,7 +11322,7 @@
       </c>
       <c r="M123" s="8"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" s="6">
         <v>121</v>
       </c>
@@ -11341,7 +11361,7 @@
       </c>
       <c r="M124" s="8"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" s="6">
         <v>122</v>
       </c>
@@ -11382,7 +11402,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="6">
         <v>123</v>
       </c>
@@ -11421,7 +11441,7 @@
       </c>
       <c r="M126" s="8"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" s="6">
         <v>124</v>
       </c>
@@ -11460,7 +11480,7 @@
       </c>
       <c r="M127" s="8"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" s="6">
         <v>125</v>
       </c>
@@ -11499,7 +11519,7 @@
       </c>
       <c r="M128" s="8"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129" s="6">
         <v>126</v>
       </c>
@@ -11540,7 +11560,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="6">
         <v>127</v>
       </c>
@@ -11579,7 +11599,7 @@
       </c>
       <c r="M130" s="8"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="6">
         <v>128</v>
       </c>
@@ -11620,7 +11640,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="6">
         <v>129</v>
       </c>
@@ -11661,7 +11681,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" s="6">
         <v>130</v>
       </c>
@@ -11702,7 +11722,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="6">
         <v>131</v>
       </c>
@@ -11741,7 +11761,7 @@
       </c>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="6">
         <v>132</v>
       </c>
@@ -11780,7 +11800,7 @@
       </c>
       <c r="M135" s="8"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="6">
         <v>133</v>
       </c>
@@ -11819,7 +11839,7 @@
       </c>
       <c r="M136" s="8"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" s="6">
         <v>134</v>
       </c>
@@ -11858,7 +11878,7 @@
       </c>
       <c r="M137" s="8"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" s="6">
         <v>135</v>
       </c>
@@ -11897,7 +11917,7 @@
       </c>
       <c r="M138" s="8"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="6">
         <v>136</v>
       </c>
@@ -11936,7 +11956,7 @@
       </c>
       <c r="M139" s="8"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" s="6">
         <v>137</v>
       </c>
@@ -11977,7 +11997,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="6">
         <v>138</v>
       </c>
@@ -12018,7 +12038,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="6">
         <v>139</v>
       </c>
@@ -12059,7 +12079,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="6">
         <v>140</v>
       </c>
@@ -12098,7 +12118,7 @@
       </c>
       <c r="M143" s="8"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" s="6">
         <v>141</v>
       </c>
@@ -12137,7 +12157,7 @@
       </c>
       <c r="M144" s="8"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="6">
         <v>142</v>
       </c>
@@ -12176,7 +12196,7 @@
       </c>
       <c r="M145" s="8"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" hidden="1">
       <c r="A146" s="6">
         <v>143</v>
       </c>
@@ -12215,7 +12235,7 @@
       </c>
       <c r="M146" s="8"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" s="6">
         <v>144</v>
       </c>
@@ -12256,7 +12276,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="6">
         <v>145</v>
       </c>
@@ -12295,7 +12315,7 @@
       </c>
       <c r="M148" s="8"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149" s="6">
         <v>146</v>
       </c>
@@ -12334,7 +12354,7 @@
       </c>
       <c r="M149" s="8"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="6">
         <v>147</v>
       </c>
@@ -12373,7 +12393,7 @@
       </c>
       <c r="M150" s="8"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="6">
         <v>148</v>
       </c>
@@ -12412,7 +12432,7 @@
       </c>
       <c r="M151" s="8"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="6">
         <v>149</v>
       </c>
@@ -12451,7 +12471,7 @@
       </c>
       <c r="M152" s="8"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="6">
         <v>150</v>
       </c>
@@ -12490,7 +12510,7 @@
       </c>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="6">
         <v>151</v>
       </c>
@@ -12529,7 +12549,7 @@
       </c>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" s="6">
         <v>152</v>
       </c>
@@ -12568,7 +12588,7 @@
       </c>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" s="6">
         <v>153</v>
       </c>
@@ -12607,7 +12627,7 @@
       </c>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="6">
         <v>154</v>
       </c>
@@ -12646,7 +12666,7 @@
       </c>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="6">
         <v>155</v>
       </c>
@@ -12687,7 +12707,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="6">
         <v>156</v>
       </c>
@@ -12728,7 +12748,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" s="6">
         <v>157</v>
       </c>
@@ -12769,7 +12789,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="6">
         <v>158</v>
       </c>
@@ -12810,7 +12830,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" s="6">
         <v>159</v>
       </c>
@@ -12849,7 +12869,7 @@
       </c>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="6">
         <v>160</v>
       </c>
@@ -12888,7 +12908,7 @@
       </c>
       <c r="M163" s="8"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" s="6">
         <v>161</v>
       </c>
@@ -12929,7 +12949,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" s="6">
         <v>162</v>
       </c>
@@ -12970,7 +12990,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" s="6">
         <v>163</v>
       </c>
@@ -13009,7 +13029,7 @@
       </c>
       <c r="M166" s="8"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" s="6">
         <v>164</v>
       </c>
@@ -13050,7 +13070,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" s="6">
         <v>165</v>
       </c>
@@ -13089,7 +13109,7 @@
       </c>
       <c r="M168" s="8"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" s="6">
         <v>166</v>
       </c>
@@ -13128,7 +13148,7 @@
       </c>
       <c r="M169" s="8"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="6">
         <v>167</v>
       </c>
@@ -13167,7 +13187,7 @@
       </c>
       <c r="M170" s="8"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="6">
         <v>168</v>
       </c>
@@ -13206,7 +13226,7 @@
       </c>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" s="6">
         <v>169</v>
       </c>
@@ -13245,7 +13265,7 @@
       </c>
       <c r="M172" s="8"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" s="6">
         <v>170</v>
       </c>
@@ -13284,7 +13304,7 @@
       </c>
       <c r="M173" s="8"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="6">
         <v>171</v>
       </c>
@@ -13325,7 +13345,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="6">
         <v>172</v>
       </c>
@@ -13364,7 +13384,7 @@
       </c>
       <c r="M175" s="8"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="6">
         <v>173</v>
       </c>
@@ -13403,7 +13423,7 @@
       </c>
       <c r="M176" s="8"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="6">
         <v>174</v>
       </c>
@@ -13442,7 +13462,7 @@
       </c>
       <c r="M177" s="8"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="6">
         <v>175</v>
       </c>
@@ -13483,7 +13503,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="6">
         <v>176</v>
       </c>
@@ -13524,7 +13544,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="6">
         <v>177</v>
       </c>
@@ -13565,7 +13585,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="6">
         <v>178</v>
       </c>
@@ -13604,7 +13624,7 @@
       </c>
       <c r="M181" s="8"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" s="6">
         <v>179</v>
       </c>
@@ -13645,7 +13665,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="6">
         <v>180</v>
       </c>
@@ -13684,7 +13704,7 @@
       </c>
       <c r="M183" s="8"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="6">
         <v>181</v>
       </c>
@@ -13725,7 +13745,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" s="6">
         <v>182</v>
       </c>
@@ -13766,7 +13786,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" s="6">
         <v>183</v>
       </c>
@@ -13807,7 +13827,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" s="6">
         <v>184</v>
       </c>
@@ -13848,7 +13868,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" s="6">
         <v>185</v>
       </c>
@@ -13887,7 +13907,7 @@
       </c>
       <c r="M188" s="8"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" s="6">
         <v>186</v>
       </c>
@@ -13928,7 +13948,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" s="6">
         <v>187</v>
       </c>
@@ -13967,7 +13987,7 @@
       </c>
       <c r="M190" s="8"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="6">
         <v>188</v>
       </c>
@@ -14006,7 +14026,7 @@
       </c>
       <c r="M191" s="8"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" s="6">
         <v>189</v>
       </c>
@@ -14045,7 +14065,7 @@
       </c>
       <c r="M192" s="8"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" s="6">
         <v>190</v>
       </c>
@@ -14084,7 +14104,7 @@
       </c>
       <c r="M193" s="8"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="6">
         <v>191</v>
       </c>
@@ -14123,7 +14143,7 @@
       </c>
       <c r="M194" s="8"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="6">
         <v>192</v>
       </c>
@@ -14162,7 +14182,7 @@
       </c>
       <c r="M195" s="8"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="6">
         <v>193</v>
       </c>
@@ -14201,7 +14221,7 @@
       </c>
       <c r="M196" s="8"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="6">
         <v>194</v>
       </c>
@@ -14240,7 +14260,7 @@
       </c>
       <c r="M197" s="12"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="6">
         <v>195</v>
       </c>
@@ -14279,7 +14299,7 @@
       </c>
       <c r="M198" s="8"/>
     </row>
-    <row r="199" spans="1:13" ht="30">
+    <row r="199" spans="1:13" ht="30" hidden="1">
       <c r="A199" s="6">
         <v>196</v>
       </c>
@@ -14320,7 +14340,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" s="6">
         <v>197</v>
       </c>
@@ -14361,7 +14381,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="6">
         <v>198</v>
       </c>
@@ -14400,7 +14420,7 @@
       </c>
       <c r="M201" s="8"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" s="6">
         <v>199</v>
       </c>
@@ -14439,7 +14459,7 @@
       </c>
       <c r="M202" s="8"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="6">
         <v>200</v>
       </c>
@@ -14478,7 +14498,7 @@
       </c>
       <c r="M203" s="8"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="6">
         <v>201</v>
       </c>
@@ -14517,7 +14537,7 @@
       </c>
       <c r="M204" s="8"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="6">
         <v>202</v>
       </c>
@@ -14558,7 +14578,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="6">
         <v>203</v>
       </c>
@@ -14599,7 +14619,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="6">
         <v>204</v>
       </c>
@@ -14638,7 +14658,7 @@
       </c>
       <c r="M207" s="8"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="6">
         <v>205</v>
       </c>
@@ -14677,7 +14697,7 @@
       </c>
       <c r="M208" s="8"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" s="6">
         <v>206</v>
       </c>
@@ -14718,7 +14738,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="6">
         <v>207</v>
       </c>
@@ -14759,7 +14779,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="6">
         <v>208</v>
       </c>
@@ -14798,7 +14818,7 @@
       </c>
       <c r="M211" s="8"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="6">
         <v>209</v>
       </c>
@@ -14839,7 +14859,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="6">
         <v>210</v>
       </c>
@@ -14878,7 +14898,7 @@
       </c>
       <c r="M213" s="8"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="6">
         <v>211</v>
       </c>
@@ -14917,7 +14937,7 @@
       </c>
       <c r="M214" s="8"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="6">
         <v>212</v>
       </c>
@@ -14958,7 +14978,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="6">
         <v>213</v>
       </c>
@@ -14999,7 +15019,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="6">
         <v>214</v>
       </c>
@@ -15040,7 +15060,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" s="6">
         <v>215</v>
       </c>
@@ -15081,7 +15101,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="6">
         <v>216</v>
       </c>
@@ -15122,7 +15142,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" s="6">
         <v>217</v>
       </c>
@@ -15161,7 +15181,7 @@
       </c>
       <c r="M220" s="8"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" s="6">
         <v>218</v>
       </c>
@@ -15200,7 +15220,7 @@
       </c>
       <c r="M221" s="8"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" s="6">
         <v>219</v>
       </c>
@@ -15241,7 +15261,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="6">
         <v>220</v>
       </c>
@@ -15280,7 +15300,7 @@
       </c>
       <c r="M223" s="8"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" s="6">
         <v>221</v>
       </c>
@@ -15319,7 +15339,7 @@
       </c>
       <c r="M224" s="8"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="6">
         <v>222</v>
       </c>
@@ -15360,7 +15380,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="6">
         <v>223</v>
       </c>
@@ -15399,7 +15419,7 @@
       </c>
       <c r="M226" s="8"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="6">
         <v>224</v>
       </c>
@@ -15438,7 +15458,7 @@
       </c>
       <c r="M227" s="8"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="6">
         <v>225</v>
       </c>
@@ -15479,7 +15499,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" s="6">
         <v>226</v>
       </c>
@@ -15520,7 +15540,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="6">
         <v>227</v>
       </c>
@@ -15559,7 +15579,7 @@
       </c>
       <c r="M230" s="8"/>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" s="6">
         <v>228</v>
       </c>
@@ -15600,7 +15620,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="6">
         <v>229</v>
       </c>
@@ -15641,7 +15661,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="6">
         <v>230</v>
       </c>
@@ -15680,7 +15700,7 @@
       </c>
       <c r="M233" s="8"/>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="6">
         <v>231</v>
       </c>
@@ -15721,7 +15741,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" s="6">
         <v>232</v>
       </c>
@@ -15762,7 +15782,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" s="6">
         <v>233</v>
       </c>
@@ -15801,7 +15821,7 @@
       </c>
       <c r="M236" s="8"/>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="6">
         <v>234</v>
       </c>
@@ -15840,7 +15860,7 @@
       </c>
       <c r="M237" s="8"/>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="6">
         <v>235</v>
       </c>
@@ -15881,7 +15901,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" s="6">
         <v>236</v>
       </c>
@@ -15920,7 +15940,7 @@
       </c>
       <c r="M239" s="8"/>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="6">
         <v>237</v>
       </c>
@@ -15959,7 +15979,7 @@
       </c>
       <c r="M240" s="8"/>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" s="6">
         <v>238</v>
       </c>
@@ -16000,7 +16020,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" s="6">
         <v>239</v>
       </c>
@@ -16039,7 +16059,7 @@
       </c>
       <c r="M242" s="8"/>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="6">
         <v>240</v>
       </c>
@@ -16078,7 +16098,7 @@
       </c>
       <c r="M243" s="8"/>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" s="6">
         <v>241</v>
       </c>
@@ -16117,7 +16137,7 @@
       </c>
       <c r="M244" s="8"/>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" s="6">
         <v>242</v>
       </c>
@@ -16158,7 +16178,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" s="6">
         <v>243</v>
       </c>
@@ -16199,7 +16219,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="6">
         <v>244</v>
       </c>
@@ -16240,7 +16260,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="6">
         <v>245</v>
       </c>
@@ -16281,7 +16301,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" s="6">
         <v>246</v>
       </c>
@@ -16320,7 +16340,7 @@
       </c>
       <c r="M249" s="8"/>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" s="6">
         <v>247</v>
       </c>
@@ -16361,7 +16381,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" s="6">
         <v>248</v>
       </c>
@@ -16402,7 +16422,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" s="6">
         <v>249</v>
       </c>
@@ -16441,7 +16461,7 @@
       </c>
       <c r="M252" s="8"/>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" s="6">
         <v>250</v>
       </c>
@@ -16482,7 +16502,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" s="6">
         <v>251</v>
       </c>
@@ -16521,7 +16541,7 @@
       </c>
       <c r="M254" s="8"/>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" s="6">
         <v>252</v>
       </c>
@@ -16560,7 +16580,7 @@
       </c>
       <c r="M255" s="8"/>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" s="6">
         <v>253</v>
       </c>
@@ -16601,7 +16621,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" s="6">
         <v>254</v>
       </c>
@@ -16640,7 +16660,7 @@
       </c>
       <c r="M257" s="8"/>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" s="6">
         <v>255</v>
       </c>
@@ -16679,7 +16699,7 @@
       </c>
       <c r="M258" s="8"/>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" s="6">
         <v>256</v>
       </c>
@@ -16720,7 +16740,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" s="6">
         <v>257</v>
       </c>
@@ -16759,7 +16779,7 @@
       </c>
       <c r="M260" s="8"/>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" s="6">
         <v>258</v>
       </c>
@@ -16798,7 +16818,7 @@
       </c>
       <c r="M261" s="8"/>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262" s="6">
         <v>259</v>
       </c>
@@ -16839,7 +16859,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" hidden="1">
       <c r="A263" s="6">
         <v>260</v>
       </c>
@@ -16878,7 +16898,7 @@
       </c>
       <c r="M263" s="8"/>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" s="6">
         <v>261</v>
       </c>
@@ -16917,7 +16937,7 @@
       </c>
       <c r="M264" s="8"/>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265" s="6">
         <v>262</v>
       </c>
@@ -16956,7 +16976,7 @@
       </c>
       <c r="M265" s="8"/>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266" s="6">
         <v>263</v>
       </c>
@@ -16997,7 +17017,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" s="6">
         <v>264</v>
       </c>
@@ -17036,7 +17056,7 @@
       </c>
       <c r="M267" s="8"/>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" hidden="1">
       <c r="A268" s="6">
         <v>265</v>
       </c>
@@ -17075,7 +17095,7 @@
       </c>
       <c r="M268" s="8"/>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269" s="6">
         <v>266</v>
       </c>
@@ -17114,7 +17134,7 @@
       </c>
       <c r="M269" s="8"/>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" s="6">
         <v>267</v>
       </c>
@@ -17153,7 +17173,7 @@
       </c>
       <c r="M270" s="8"/>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" hidden="1">
       <c r="A271" s="6">
         <v>268</v>
       </c>
@@ -17194,7 +17214,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" hidden="1">
       <c r="A272" s="6">
         <v>269</v>
       </c>
@@ -17233,7 +17253,7 @@
       </c>
       <c r="M272" s="8"/>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273" s="6">
         <v>270</v>
       </c>
@@ -17274,7 +17294,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274" s="6">
         <v>271</v>
       </c>
@@ -17313,7 +17333,7 @@
       </c>
       <c r="M274" s="8"/>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275" s="6">
         <v>272</v>
       </c>
@@ -17352,7 +17372,7 @@
       </c>
       <c r="M275" s="8"/>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" s="6">
         <v>273</v>
       </c>
@@ -17393,7 +17413,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" s="6">
         <v>274</v>
       </c>
@@ -17432,7 +17452,7 @@
       </c>
       <c r="M277" s="8"/>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278" s="6">
         <v>275</v>
       </c>
@@ -17471,7 +17491,7 @@
       </c>
       <c r="M278" s="8"/>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" s="6">
         <v>276</v>
       </c>
@@ -17510,7 +17530,7 @@
       </c>
       <c r="M279" s="8"/>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" hidden="1">
       <c r="A280" s="6">
         <v>277</v>
       </c>
@@ -17551,7 +17571,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" hidden="1">
       <c r="A281" s="6">
         <v>278</v>
       </c>
@@ -17592,7 +17612,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" hidden="1">
       <c r="A282" s="6">
         <v>279</v>
       </c>
@@ -17631,7 +17651,7 @@
       </c>
       <c r="M282" s="8"/>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" hidden="1">
       <c r="A283" s="6">
         <v>280</v>
       </c>
@@ -17670,7 +17690,7 @@
       </c>
       <c r="M283" s="8"/>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" hidden="1">
       <c r="A284" s="6">
         <v>281</v>
       </c>
@@ -17709,7 +17729,7 @@
       </c>
       <c r="M284" s="8"/>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" s="6">
         <v>282</v>
       </c>
@@ -17750,7 +17770,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" hidden="1">
       <c r="A286" s="6">
         <v>283</v>
       </c>
@@ -17791,7 +17811,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" hidden="1">
       <c r="A287" s="6">
         <v>284</v>
       </c>
@@ -17832,7 +17852,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288" s="6">
         <v>285</v>
       </c>
@@ -17873,7 +17893,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" hidden="1">
       <c r="A289" s="6">
         <v>286</v>
       </c>
@@ -17912,7 +17932,7 @@
       </c>
       <c r="M289" s="8"/>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" hidden="1">
       <c r="A290" s="6">
         <v>287</v>
       </c>
@@ -17953,7 +17973,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" hidden="1">
       <c r="A291" s="6">
         <v>288</v>
       </c>
@@ -17992,7 +18012,7 @@
       </c>
       <c r="M291" s="8"/>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" hidden="1">
       <c r="A292" s="6">
         <v>289</v>
       </c>
@@ -18031,7 +18051,7 @@
       </c>
       <c r="M292" s="8"/>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" hidden="1">
       <c r="A293" s="6">
         <v>290</v>
       </c>
@@ -18070,7 +18090,7 @@
       </c>
       <c r="M293" s="8"/>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" hidden="1">
       <c r="A294" s="6">
         <v>291</v>
       </c>
@@ -18109,7 +18129,7 @@
       </c>
       <c r="M294" s="8"/>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" hidden="1">
       <c r="A295" s="6">
         <v>292</v>
       </c>
@@ -18150,7 +18170,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" hidden="1">
       <c r="A296" s="6">
         <v>293</v>
       </c>
@@ -18189,7 +18209,7 @@
       </c>
       <c r="M296" s="8"/>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" hidden="1">
       <c r="A297" s="6">
         <v>294</v>
       </c>
@@ -18228,7 +18248,7 @@
       </c>
       <c r="M297" s="8"/>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" hidden="1">
       <c r="A298" s="6">
         <v>295</v>
       </c>
@@ -18269,7 +18289,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" hidden="1">
       <c r="A299" s="6">
         <v>296</v>
       </c>
@@ -18310,7 +18330,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" hidden="1">
       <c r="A300" s="6">
         <v>297</v>
       </c>
@@ -18349,7 +18369,7 @@
       </c>
       <c r="M300" s="8"/>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" hidden="1">
       <c r="A301" s="6">
         <v>298</v>
       </c>
@@ -18390,7 +18410,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" hidden="1">
       <c r="A302" s="6">
         <v>299</v>
       </c>
@@ -18429,7 +18449,7 @@
       </c>
       <c r="M302" s="8"/>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" hidden="1">
       <c r="A303" s="6">
         <v>300</v>
       </c>
@@ -18470,7 +18490,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" hidden="1">
       <c r="A304" s="6">
         <v>301</v>
       </c>
@@ -18511,7 +18531,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305" s="6">
         <v>302</v>
       </c>
@@ -18552,7 +18572,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306" s="6">
         <v>303</v>
       </c>
@@ -18593,7 +18613,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" hidden="1">
       <c r="A307" s="6">
         <v>304</v>
       </c>
@@ -18634,7 +18654,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" hidden="1">
       <c r="A308" s="6">
         <v>305</v>
       </c>
@@ -18675,7 +18695,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" hidden="1">
       <c r="A309" s="6">
         <v>306</v>
       </c>
@@ -18714,7 +18734,7 @@
       </c>
       <c r="M309" s="8"/>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" hidden="1">
       <c r="A310" s="6">
         <v>307</v>
       </c>
@@ -18753,7 +18773,7 @@
       </c>
       <c r="M310" s="8"/>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" hidden="1">
       <c r="A311" s="6">
         <v>308</v>
       </c>
@@ -18794,7 +18814,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" hidden="1">
       <c r="A312" s="6">
         <v>309</v>
       </c>
@@ -18835,7 +18855,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" hidden="1">
       <c r="A313" s="6">
         <v>310</v>
       </c>
@@ -18874,7 +18894,7 @@
       </c>
       <c r="M313" s="8"/>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" hidden="1">
       <c r="A314" s="6">
         <v>311</v>
       </c>
@@ -18913,7 +18933,7 @@
       </c>
       <c r="M314" s="8"/>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" hidden="1">
       <c r="A315" s="6">
         <v>312</v>
       </c>
@@ -18954,7 +18974,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" hidden="1">
       <c r="A316" s="6">
         <v>313</v>
       </c>
@@ -18995,7 +19015,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" hidden="1">
       <c r="A317" s="6">
         <v>314</v>
       </c>
@@ -19036,7 +19056,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" hidden="1">
       <c r="A318" s="6">
         <v>315</v>
       </c>
@@ -19075,7 +19095,7 @@
       </c>
       <c r="M318" s="8"/>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" hidden="1">
       <c r="A319" s="6">
         <v>316</v>
       </c>
@@ -19114,7 +19134,7 @@
       </c>
       <c r="M319" s="8"/>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" hidden="1">
       <c r="A320" s="6">
         <v>317</v>
       </c>
@@ -19153,7 +19173,7 @@
       </c>
       <c r="M320" s="8"/>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" s="6">
         <v>318</v>
       </c>
@@ -19192,7 +19212,7 @@
       </c>
       <c r="M321" s="8"/>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" hidden="1">
       <c r="A322" s="6">
         <v>319</v>
       </c>
@@ -19231,7 +19251,7 @@
       </c>
       <c r="M322" s="8"/>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" hidden="1">
       <c r="A323" s="6">
         <v>320</v>
       </c>
@@ -19272,7 +19292,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" s="6">
         <v>321</v>
       </c>
@@ -19311,7 +19331,7 @@
       </c>
       <c r="M324" s="8"/>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" hidden="1">
       <c r="A325" s="6">
         <v>322</v>
       </c>
@@ -19350,7 +19370,7 @@
       </c>
       <c r="M325" s="8"/>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" hidden="1">
       <c r="A326" s="6">
         <v>323</v>
       </c>
@@ -19391,7 +19411,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" s="6">
         <v>324</v>
       </c>
@@ -19430,7 +19450,7 @@
       </c>
       <c r="M327" s="8"/>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" hidden="1">
       <c r="A328" s="6">
         <v>325</v>
       </c>
@@ -19469,7 +19489,7 @@
       </c>
       <c r="M328" s="8"/>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" hidden="1">
       <c r="A329" s="6">
         <v>326</v>
       </c>
@@ -19510,7 +19530,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" s="6">
         <v>327</v>
       </c>
@@ -19549,7 +19569,7 @@
       </c>
       <c r="M330" s="8"/>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" hidden="1">
       <c r="A331" s="6">
         <v>328</v>
       </c>
@@ -19590,7 +19610,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" hidden="1">
       <c r="A332" s="6">
         <v>329</v>
       </c>
@@ -19631,7 +19651,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" s="6">
         <v>330</v>
       </c>
@@ -19672,7 +19692,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" hidden="1">
       <c r="A334" s="6">
         <v>331</v>
       </c>
@@ -19713,7 +19733,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" hidden="1">
       <c r="A335" s="6">
         <v>332</v>
       </c>
@@ -19754,7 +19774,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" s="6">
         <v>333</v>
       </c>
@@ -19795,7 +19815,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" hidden="1">
       <c r="A337" s="6">
         <v>334</v>
       </c>
@@ -19836,7 +19856,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" hidden="1">
       <c r="A338" s="6">
         <v>335</v>
       </c>
@@ -19875,7 +19895,7 @@
       </c>
       <c r="M338" s="8"/>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" hidden="1">
       <c r="A339" s="6">
         <v>336</v>
       </c>
@@ -19916,7 +19936,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" hidden="1">
       <c r="A340" s="6">
         <v>337</v>
       </c>
@@ -19957,7 +19977,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" hidden="1">
       <c r="A341" s="6">
         <v>338</v>
       </c>
@@ -19998,7 +20018,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" hidden="1">
       <c r="A342" s="6">
         <v>339</v>
       </c>
@@ -20037,7 +20057,7 @@
       </c>
       <c r="M342" s="8"/>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" hidden="1">
       <c r="A343" s="6">
         <v>340</v>
       </c>
@@ -20076,7 +20096,7 @@
       </c>
       <c r="M343" s="8"/>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" hidden="1">
       <c r="A344" s="6">
         <v>341</v>
       </c>
@@ -20117,7 +20137,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" hidden="1">
       <c r="A345" s="6">
         <v>342</v>
       </c>
@@ -20158,7 +20178,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" hidden="1">
       <c r="A346" s="6">
         <v>343</v>
       </c>
@@ -20199,7 +20219,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" hidden="1">
       <c r="A347" s="6">
         <v>344</v>
       </c>
@@ -20238,7 +20258,7 @@
       </c>
       <c r="M347" s="8"/>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" hidden="1">
       <c r="A348" s="6">
         <v>345</v>
       </c>
@@ -20277,7 +20297,7 @@
       </c>
       <c r="M348" s="8"/>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" hidden="1">
       <c r="A349" s="6">
         <v>346</v>
       </c>
@@ -20316,7 +20336,7 @@
       </c>
       <c r="M349" s="8"/>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" hidden="1">
       <c r="A350" s="6">
         <v>347</v>
       </c>
@@ -20357,7 +20377,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" hidden="1">
       <c r="A351" s="6">
         <v>348</v>
       </c>
@@ -20398,7 +20418,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" hidden="1">
       <c r="A352" s="6">
         <v>349</v>
       </c>
@@ -20439,7 +20459,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" hidden="1">
       <c r="A353" s="6">
         <v>350</v>
       </c>
@@ -20478,7 +20498,7 @@
       </c>
       <c r="M353" s="8"/>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" hidden="1">
       <c r="A354" s="6">
         <v>351</v>
       </c>
@@ -20519,7 +20539,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" hidden="1">
       <c r="A355" s="6">
         <v>352</v>
       </c>
@@ -20560,7 +20580,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" hidden="1">
       <c r="A356" s="6">
         <v>353</v>
       </c>
@@ -20599,7 +20619,7 @@
       </c>
       <c r="M356" s="8"/>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" hidden="1">
       <c r="A357" s="6">
         <v>354</v>
       </c>
@@ -20638,7 +20658,7 @@
       </c>
       <c r="M357" s="8"/>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" hidden="1">
       <c r="A358" s="6">
         <v>355</v>
       </c>
@@ -20679,7 +20699,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" hidden="1">
       <c r="A359" s="6">
         <v>356</v>
       </c>
@@ -20720,7 +20740,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" hidden="1">
       <c r="A360" s="6">
         <v>357</v>
       </c>
@@ -20759,7 +20779,7 @@
       </c>
       <c r="M360" s="8"/>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" hidden="1">
       <c r="A361" s="6">
         <v>358</v>
       </c>
@@ -20798,7 +20818,7 @@
       </c>
       <c r="M361" s="8"/>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" hidden="1">
       <c r="A362" s="6">
         <v>359</v>
       </c>
@@ -20837,7 +20857,7 @@
       </c>
       <c r="M362" s="8"/>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" hidden="1">
       <c r="A363" s="6">
         <v>360</v>
       </c>
@@ -20878,7 +20898,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" hidden="1">
       <c r="A364" s="6">
         <v>361</v>
       </c>
@@ -20921,373 +20941,377 @@
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="6">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>1517</v>
+        <v>1557</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>1518</v>
+        <v>1558</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E365" s="9" t="s">
-        <v>1519</v>
+        <v>1563</v>
       </c>
       <c r="F365" s="9" t="s">
-        <v>1520</v>
+        <v>1564</v>
       </c>
       <c r="G365" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H365" s="9">
-        <v>135.69</v>
+        <v>121.79</v>
       </c>
       <c r="I365" s="9">
-        <v>78.37</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="J365" s="9">
-        <v>292.43</v>
+        <v>275.08999999999997</v>
       </c>
       <c r="K365" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L365" s="8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="M365" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="M365" s="8" t="s">
+        <v>1565</v>
+      </c>
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="6">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>1517</v>
+        <v>1536</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>1518</v>
+        <v>1537</v>
       </c>
       <c r="D366" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E366" s="9" t="s">
-        <v>1522</v>
+        <v>1538</v>
       </c>
       <c r="F366" s="9" t="s">
-        <v>1523</v>
+        <v>1539</v>
       </c>
       <c r="G366" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H366" s="9">
-        <v>132.94999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="I366" s="9">
-        <v>79.489999999999995</v>
+        <v>78.63</v>
       </c>
       <c r="J366" s="9">
-        <v>291.93</v>
+        <v>279.81</v>
       </c>
       <c r="K366" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L366" s="8" t="s">
-        <v>1524</v>
+        <v>119</v>
       </c>
       <c r="M366" s="8" t="s">
-        <v>1525</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="367" spans="1:13">
       <c r="A367" s="6">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>1526</v>
+        <v>1671</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>1188</v>
+        <v>1558</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>1527</v>
+        <v>1679</v>
       </c>
       <c r="F367" s="9" t="s">
-        <v>1528</v>
+        <v>1680</v>
       </c>
       <c r="G367" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H367" s="9">
-        <v>124</v>
+        <v>122.89</v>
       </c>
       <c r="I367" s="9">
-        <v>79.36</v>
+        <v>74.27</v>
       </c>
       <c r="J367" s="9">
-        <v>282.72000000000003</v>
+        <v>271.43</v>
       </c>
       <c r="K367" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L367" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M367" s="8" t="s">
-        <v>1529</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M367" s="8"/>
     </row>
     <row r="368" spans="1:13">
       <c r="A368" s="6">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>1530</v>
+        <v>1576</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>1531</v>
+        <v>1558</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E368" s="9" t="s">
-        <v>1532</v>
+        <v>1598</v>
       </c>
       <c r="F368" s="9" t="s">
-        <v>1533</v>
+        <v>1599</v>
       </c>
       <c r="G368" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H368" s="9">
-        <v>124.82</v>
+        <v>123.14</v>
       </c>
       <c r="I368" s="9">
-        <v>81.459999999999994</v>
+        <v>83.08</v>
       </c>
       <c r="J368" s="9">
-        <v>287.74</v>
+        <v>289.3</v>
       </c>
       <c r="K368" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L368" s="8" t="s">
-        <v>1534</v>
+        <v>1600</v>
       </c>
       <c r="M368" s="8" t="s">
-        <v>1535</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="6">
-        <v>366</v>
-      </c>
-      <c r="B369" s="7" t="s">
-        <v>1536</v>
+        <v>369</v>
+      </c>
+      <c r="B369" s="7">
+        <v>2203000042025</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="F369" s="9" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="G369" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H369" s="9">
-        <v>122.55</v>
+        <v>123.55</v>
       </c>
       <c r="I369" s="9">
-        <v>78.63</v>
+        <v>76.28</v>
       </c>
       <c r="J369" s="9">
-        <v>279.81</v>
+        <v>276.11</v>
       </c>
       <c r="K369" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L369" s="8" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="M369" s="8" t="s">
-        <v>1540</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="6">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>1541</v>
+        <v>1576</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>1542</v>
+        <v>1558</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>1543</v>
+        <v>1595</v>
       </c>
       <c r="F370" s="9" t="s">
-        <v>1544</v>
+        <v>1596</v>
       </c>
       <c r="G370" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H370" s="9">
-        <v>132.47999999999999</v>
+        <v>123.82</v>
       </c>
       <c r="I370" s="9">
-        <v>74.86</v>
+        <v>83.12</v>
       </c>
       <c r="J370" s="9">
-        <v>282.2</v>
+        <v>290.06</v>
       </c>
       <c r="K370" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L370" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="M370" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="M370" s="8" t="s">
+        <v>1597</v>
+      </c>
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="6">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>1542</v>
+        <v>1188</v>
       </c>
       <c r="D371" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>1545</v>
+        <v>1527</v>
       </c>
       <c r="F371" s="9" t="s">
-        <v>1546</v>
+        <v>1528</v>
       </c>
       <c r="G371" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H371" s="9">
-        <v>125.09</v>
+        <v>124</v>
       </c>
       <c r="I371" s="9">
-        <v>77.88</v>
+        <v>79.36</v>
       </c>
       <c r="J371" s="9">
-        <v>280.85000000000002</v>
+        <v>282.72000000000003</v>
       </c>
       <c r="K371" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L371" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="M371" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="M371" s="8" t="s">
+        <v>1529</v>
+      </c>
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="6">
-        <v>369</v>
-      </c>
-      <c r="B372" s="7">
-        <v>2203000042025</v>
+        <v>409</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>1671</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>1542</v>
+        <v>1558</v>
       </c>
       <c r="D372" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>1547</v>
+        <v>1681</v>
       </c>
       <c r="F372" s="9" t="s">
-        <v>1548</v>
+        <v>1682</v>
       </c>
       <c r="G372" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H372" s="9">
-        <v>123.55</v>
+        <v>124.22</v>
       </c>
       <c r="I372" s="9">
-        <v>76.28</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="J372" s="9">
-        <v>276.11</v>
+        <v>269.92</v>
       </c>
       <c r="K372" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L372" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M372" s="8" t="s">
-        <v>1549</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="6">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>1550</v>
+        <v>1576</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>1551</v>
+        <v>1558</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>1552</v>
+        <v>286</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>1553</v>
+        <v>1601</v>
       </c>
       <c r="F373" s="9" t="s">
-        <v>1554</v>
+        <v>1602</v>
       </c>
       <c r="G373" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H373" s="9">
-        <v>119.79</v>
+        <v>124.46</v>
       </c>
       <c r="I373" s="9">
-        <v>80.150000000000006</v>
+        <v>82.28</v>
       </c>
       <c r="J373" s="9">
-        <v>280.08999999999997</v>
+        <v>289.02</v>
       </c>
       <c r="K373" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L373" s="8" t="s">
-        <v>1555</v>
+        <v>442</v>
       </c>
       <c r="M373" s="8" t="s">
-        <v>1556</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="6">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>1557</v>
+        <v>1671</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>1558</v>
@@ -21296,121 +21320,121 @@
         <v>286</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>1559</v>
+        <v>1672</v>
       </c>
       <c r="F374" s="9" t="s">
-        <v>1560</v>
+        <v>1673</v>
       </c>
       <c r="G374" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H374" s="9">
-        <v>120.65</v>
+        <v>124.53</v>
       </c>
       <c r="I374" s="9">
-        <v>78.66</v>
+        <v>76.92</v>
       </c>
       <c r="J374" s="9">
-        <v>277.97000000000003</v>
+        <v>278.37</v>
       </c>
       <c r="K374" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L374" s="8" t="s">
-        <v>1561</v>
+        <v>32</v>
       </c>
       <c r="M374" s="8" t="s">
-        <v>1562</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="375" spans="1:13">
       <c r="A375" s="6">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>1557</v>
+        <v>1530</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>1558</v>
+        <v>1531</v>
       </c>
       <c r="D375" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E375" s="9" t="s">
-        <v>1563</v>
+        <v>1532</v>
       </c>
       <c r="F375" s="9" t="s">
-        <v>1564</v>
+        <v>1533</v>
       </c>
       <c r="G375" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H375" s="9">
-        <v>121.79</v>
+        <v>124.82</v>
       </c>
       <c r="I375" s="9">
-        <v>76.650000000000006</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="J375" s="9">
-        <v>275.08999999999997</v>
+        <v>287.74</v>
       </c>
       <c r="K375" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L375" s="8" t="s">
-        <v>119</v>
+        <v>1534</v>
       </c>
       <c r="M375" s="8" t="s">
-        <v>1565</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="376" spans="1:13">
       <c r="A376" s="6">
-        <v>373</v>
+        <v>57</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>1557</v>
+        <v>252</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>1558</v>
+        <v>244</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>1566</v>
+        <v>253</v>
       </c>
       <c r="F376" s="9" t="s">
-        <v>1567</v>
+        <v>254</v>
       </c>
       <c r="G376" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H376" s="9">
-        <v>119.16</v>
+        <v>124.93</v>
       </c>
       <c r="I376" s="9">
-        <v>77.739999999999995</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="J376" s="9">
-        <v>274.64</v>
+        <v>281.23</v>
       </c>
       <c r="K376" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L376" s="8" t="s">
-        <v>1568</v>
+        <v>255</v>
       </c>
       <c r="M376" s="8" t="s">
-        <v>1569</v>
+        <v>256</v>
       </c>
     </row>
     <row r="377" spans="1:13">
       <c r="A377" s="6">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>1557</v>
+        <v>1576</v>
       </c>
       <c r="C377" s="8" t="s">
         <v>1558</v>
@@ -21419,118 +21443,116 @@
         <v>286</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>1570</v>
+        <v>1604</v>
       </c>
       <c r="F377" s="9" t="s">
-        <v>1571</v>
+        <v>1605</v>
       </c>
       <c r="G377" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H377" s="9">
-        <v>117.99</v>
+        <v>125.02</v>
       </c>
       <c r="I377" s="9">
-        <v>76.819999999999993</v>
+        <v>81.92</v>
       </c>
       <c r="J377" s="9">
-        <v>271.63</v>
+        <v>288.86</v>
       </c>
       <c r="K377" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L377" s="8" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M377" s="8" t="s">
-        <v>1562</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="378" spans="1:13">
       <c r="A378" s="6">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E378" s="9" t="s">
-        <v>1572</v>
+        <v>1545</v>
       </c>
       <c r="F378" s="9" t="s">
-        <v>1573</v>
+        <v>1546</v>
       </c>
       <c r="G378" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H378" s="9">
-        <v>114.03</v>
+        <v>125.09</v>
       </c>
       <c r="I378" s="9">
-        <v>76.66</v>
+        <v>77.88</v>
       </c>
       <c r="J378" s="9">
-        <v>267.35000000000002</v>
+        <v>280.85000000000002</v>
       </c>
       <c r="K378" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="L378" s="8" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M378" s="8" t="s">
-        <v>1575</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="M378" s="8"/>
     </row>
     <row r="379" spans="1:13">
       <c r="A379" s="6">
-        <v>376</v>
+        <v>58</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>1576</v>
+        <v>257</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>1558</v>
+        <v>244</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>1577</v>
+        <v>258</v>
       </c>
       <c r="F379" s="9" t="s">
-        <v>1578</v>
+        <v>259</v>
       </c>
       <c r="G379" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H379" s="9">
-        <v>134.06</v>
+        <v>125.37</v>
       </c>
       <c r="I379" s="9">
-        <v>81.44</v>
+        <v>80.58</v>
       </c>
       <c r="J379" s="9">
-        <v>296.94</v>
+        <v>286.52999999999997</v>
       </c>
       <c r="K379" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L379" s="8" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="M379" s="8" t="s">
-        <v>1579</v>
+        <v>261</v>
       </c>
     </row>
     <row r="380" spans="1:13">
       <c r="A380" s="6">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B380" s="7" t="s">
         <v>1576</v>
@@ -21542,39 +21564,39 @@
         <v>286</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="F380" s="9" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="G380" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H380" s="9">
-        <v>127.57</v>
+        <v>126.55</v>
       </c>
       <c r="I380" s="9">
-        <v>83.86</v>
+        <v>83.2</v>
       </c>
       <c r="J380" s="9">
-        <v>295.29000000000002</v>
+        <v>292.95</v>
       </c>
       <c r="K380" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L380" s="8" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="M380" s="8" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="381" spans="1:13">
       <c r="A381" s="6">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1576</v>
+        <v>1662</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>1558</v>
@@ -21583,77 +21605,75 @@
         <v>286</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>1583</v>
+        <v>1668</v>
       </c>
       <c r="F381" s="9" t="s">
-        <v>1584</v>
+        <v>1669</v>
       </c>
       <c r="G381" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H381" s="9">
-        <v>131.13999999999999</v>
+        <v>127.03</v>
       </c>
       <c r="I381" s="9">
-        <v>81.61</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="J381" s="9">
-        <v>294.36</v>
+        <v>286.61</v>
       </c>
       <c r="K381" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L381" s="8" t="s">
-        <v>442</v>
+        <v>1130</v>
       </c>
       <c r="M381" s="8" t="s">
-        <v>1585</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="382" spans="1:13">
       <c r="A382" s="6">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1576</v>
+        <v>249</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>1558</v>
+        <v>244</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>1586</v>
+        <v>250</v>
       </c>
       <c r="F382" s="9" t="s">
-        <v>1587</v>
+        <v>251</v>
       </c>
       <c r="G382" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H382" s="9">
-        <v>126.55</v>
+        <v>127.26</v>
       </c>
       <c r="I382" s="9">
-        <v>83.2</v>
+        <v>80.91</v>
       </c>
       <c r="J382" s="9">
-        <v>292.95</v>
+        <v>289.08</v>
       </c>
       <c r="K382" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L382" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="M382" s="8" t="s">
-        <v>1588</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M382" s="8"/>
     </row>
     <row r="383" spans="1:13">
       <c r="A383" s="6">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>1576</v>
@@ -21665,31 +21685,31 @@
         <v>286</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="F383" s="9" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="G383" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H383" s="9">
-        <v>130.06</v>
+        <v>127.57</v>
       </c>
       <c r="I383" s="9">
-        <v>80.27</v>
+        <v>83.86</v>
       </c>
       <c r="J383" s="9">
-        <v>290.60000000000002</v>
+        <v>295.29000000000002</v>
       </c>
       <c r="K383" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L383" s="8" t="s">
-        <v>54</v>
+        <v>465</v>
       </c>
       <c r="M383" s="8" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="384" spans="1:13">
@@ -21735,51 +21755,51 @@
     </row>
     <row r="385" spans="1:13">
       <c r="A385" s="6">
-        <v>382</v>
+        <v>55</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>1576</v>
+        <v>243</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>1558</v>
+        <v>244</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="E385" s="9" t="s">
-        <v>1595</v>
+        <v>245</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>1596</v>
+        <v>246</v>
       </c>
       <c r="G385" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H385" s="9">
-        <v>123.82</v>
+        <v>129.47999999999999</v>
       </c>
       <c r="I385" s="9">
-        <v>83.12</v>
+        <v>79.84</v>
       </c>
       <c r="J385" s="9">
-        <v>290.06</v>
+        <v>289.16000000000003</v>
       </c>
       <c r="K385" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L385" s="8" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="M385" s="8" t="s">
-        <v>1597</v>
+        <v>248</v>
       </c>
     </row>
     <row r="386" spans="1:13">
       <c r="A386" s="6">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>1576</v>
+        <v>1691</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>1558</v>
@@ -21788,36 +21808,36 @@
         <v>286</v>
       </c>
       <c r="E386" s="9" t="s">
-        <v>1598</v>
+        <v>1694</v>
       </c>
       <c r="F386" s="9" t="s">
-        <v>1599</v>
+        <v>1695</v>
       </c>
       <c r="G386" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H386" s="9">
-        <v>123.14</v>
+        <v>129.62</v>
       </c>
       <c r="I386" s="9">
-        <v>83.08</v>
+        <v>79.89</v>
       </c>
       <c r="J386" s="9">
-        <v>289.3</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="K386" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L386" s="8" t="s">
-        <v>1600</v>
+        <v>22</v>
       </c>
       <c r="M386" s="8" t="s">
-        <v>1569</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="387" spans="1:13">
       <c r="A387" s="6">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>1576</v>
@@ -21829,39 +21849,39 @@
         <v>286</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="F387" s="9" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="G387" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H387" s="9">
-        <v>124.46</v>
+        <v>130.06</v>
       </c>
       <c r="I387" s="9">
-        <v>82.28</v>
+        <v>80.27</v>
       </c>
       <c r="J387" s="9">
-        <v>289.02</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="K387" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L387" s="8" t="s">
-        <v>442</v>
+        <v>54</v>
       </c>
       <c r="M387" s="8" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="388" spans="1:13">
       <c r="A388" s="6">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>1576</v>
+        <v>1634</v>
       </c>
       <c r="C388" s="8" t="s">
         <v>1558</v>
@@ -21870,39 +21890,37 @@
         <v>286</v>
       </c>
       <c r="E388" s="9" t="s">
-        <v>1604</v>
+        <v>1644</v>
       </c>
       <c r="F388" s="9" t="s">
-        <v>1605</v>
+        <v>1645</v>
       </c>
       <c r="G388" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H388" s="9">
-        <v>125.02</v>
+        <v>130.24</v>
       </c>
       <c r="I388" s="9">
-        <v>81.92</v>
+        <v>77.84</v>
       </c>
       <c r="J388" s="9">
-        <v>288.86</v>
+        <v>285.92</v>
       </c>
       <c r="K388" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L388" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M388" s="8" t="s">
-        <v>1606</v>
-      </c>
+        <v>1646</v>
+      </c>
+      <c r="M388" s="8"/>
     </row>
     <row r="389" spans="1:13">
       <c r="A389" s="6">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="C389" s="8" t="s">
         <v>1558</v>
@@ -21911,37 +21929,37 @@
         <v>286</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>1608</v>
+        <v>1656</v>
       </c>
       <c r="F389" s="9" t="s">
-        <v>1609</v>
+        <v>1657</v>
       </c>
       <c r="G389" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H389" s="9">
-        <v>131.31</v>
+        <v>130.44999999999999</v>
       </c>
       <c r="I389" s="9">
-        <v>84.39</v>
+        <v>76.83</v>
       </c>
       <c r="J389" s="9">
-        <v>300.08999999999997</v>
+        <v>284.11</v>
       </c>
       <c r="K389" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L389" s="8" t="s">
-        <v>65</v>
+        <v>1658</v>
       </c>
       <c r="M389" s="8"/>
     </row>
     <row r="390" spans="1:13">
       <c r="A390" s="6">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>1607</v>
+        <v>1634</v>
       </c>
       <c r="C390" s="8" t="s">
         <v>1558</v>
@@ -21950,39 +21968,39 @@
         <v>286</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>1610</v>
+        <v>1641</v>
       </c>
       <c r="F390" s="9" t="s">
-        <v>1611</v>
+        <v>1642</v>
       </c>
       <c r="G390" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H390" s="9">
-        <v>131.13</v>
+        <v>130.6</v>
       </c>
       <c r="I390" s="9">
-        <v>83.98</v>
+        <v>77.72</v>
       </c>
       <c r="J390" s="9">
-        <v>299.08999999999997</v>
+        <v>286.04000000000002</v>
       </c>
       <c r="K390" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L390" s="8" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="M390" s="8" t="s">
-        <v>1612</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="391" spans="1:13">
       <c r="A391" s="6">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>1558</v>
@@ -21991,39 +22009,39 @@
         <v>286</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>1613</v>
+        <v>1653</v>
       </c>
       <c r="F391" s="9" t="s">
-        <v>1614</v>
+        <v>1654</v>
       </c>
       <c r="G391" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H391" s="9">
-        <v>135.35</v>
+        <v>130.9</v>
       </c>
       <c r="I391" s="9">
-        <v>80.7</v>
+        <v>76.61</v>
       </c>
       <c r="J391" s="9">
-        <v>296.75</v>
+        <v>284.12</v>
       </c>
       <c r="K391" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L391" s="8" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="M391" s="8" t="s">
-        <v>1615</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="392" spans="1:13">
       <c r="A392" s="6">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>1558</v>
@@ -22032,39 +22050,39 @@
         <v>286</v>
       </c>
       <c r="E392" s="9" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="F392" s="9" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="G392" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H392" s="9">
-        <v>132.88999999999999</v>
+        <v>131.13</v>
       </c>
       <c r="I392" s="9">
-        <v>81.849999999999994</v>
+        <v>83.98</v>
       </c>
       <c r="J392" s="9">
-        <v>296.58999999999997</v>
+        <v>299.08999999999997</v>
       </c>
       <c r="K392" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L392" s="8" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="M392" s="8" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="393" spans="1:13">
       <c r="A393" s="6">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>1616</v>
+        <v>1576</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>1558</v>
@@ -22073,39 +22091,39 @@
         <v>286</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>1620</v>
+        <v>1583</v>
       </c>
       <c r="F393" s="9" t="s">
-        <v>1621</v>
+        <v>1584</v>
       </c>
       <c r="G393" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H393" s="9">
-        <v>140.07</v>
+        <v>131.13999999999999</v>
       </c>
       <c r="I393" s="9">
-        <v>78.150000000000006</v>
+        <v>81.61</v>
       </c>
       <c r="J393" s="9">
-        <v>296.37</v>
+        <v>294.36</v>
       </c>
       <c r="K393" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L393" s="8" t="s">
-        <v>1622</v>
+        <v>442</v>
       </c>
       <c r="M393" s="8" t="s">
-        <v>1623</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="394" spans="1:13">
       <c r="A394" s="6">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>1616</v>
+        <v>1691</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>1558</v>
@@ -22114,39 +22132,39 @@
         <v>286</v>
       </c>
       <c r="E394" s="9" t="s">
-        <v>1624</v>
+        <v>1699</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>1625</v>
+        <v>1700</v>
       </c>
       <c r="G394" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H394" s="9">
-        <v>133.04</v>
+        <v>131.15</v>
       </c>
       <c r="I394" s="9">
-        <v>81.010000000000005</v>
+        <v>75.89</v>
       </c>
       <c r="J394" s="9">
-        <v>295.06</v>
+        <v>282.93</v>
       </c>
       <c r="K394" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L394" s="8" t="s">
-        <v>1626</v>
+        <v>29</v>
       </c>
       <c r="M394" s="8" t="s">
-        <v>1627</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="6">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="C395" s="8" t="s">
         <v>1558</v>
@@ -22155,39 +22173,37 @@
         <v>286</v>
       </c>
       <c r="E395" s="9" t="s">
-        <v>1628</v>
+        <v>1608</v>
       </c>
       <c r="F395" s="9" t="s">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="G395" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H395" s="9">
-        <v>132.6</v>
+        <v>131.31</v>
       </c>
       <c r="I395" s="9">
-        <v>81.14</v>
+        <v>84.39</v>
       </c>
       <c r="J395" s="9">
-        <v>294.88</v>
+        <v>300.08999999999997</v>
       </c>
       <c r="K395" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L395" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M395" s="8" t="s">
-        <v>1630</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M395" s="8"/>
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="6">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>1616</v>
+        <v>1691</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>1558</v>
@@ -22196,37 +22212,37 @@
         <v>286</v>
       </c>
       <c r="E396" s="9" t="s">
-        <v>1631</v>
+        <v>1697</v>
       </c>
       <c r="F396" s="9" t="s">
-        <v>1632</v>
+        <v>1698</v>
       </c>
       <c r="G396" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H396" s="9">
-        <v>132.49</v>
+        <v>131.32</v>
       </c>
       <c r="I396" s="9">
-        <v>78.83</v>
+        <v>76.38</v>
       </c>
       <c r="J396" s="9">
-        <v>290.14999999999998</v>
+        <v>284.08</v>
       </c>
       <c r="K396" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L396" s="8" t="s">
-        <v>1633</v>
+        <v>29</v>
       </c>
       <c r="M396" s="8"/>
     </row>
     <row r="397" spans="1:13">
       <c r="A397" s="6">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>1634</v>
+        <v>1683</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>1558</v>
@@ -22235,31 +22251,31 @@
         <v>286</v>
       </c>
       <c r="E397" s="9" t="s">
-        <v>1635</v>
+        <v>1684</v>
       </c>
       <c r="F397" s="9" t="s">
-        <v>1636</v>
+        <v>1685</v>
       </c>
       <c r="G397" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H397" s="9">
-        <v>132.37</v>
+        <v>131.75</v>
       </c>
       <c r="I397" s="9">
-        <v>79.03</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="J397" s="9">
-        <v>290.43</v>
+        <v>288.83</v>
       </c>
       <c r="K397" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L397" s="8" t="s">
-        <v>1637</v>
+        <v>1686</v>
       </c>
       <c r="M397" s="8" t="s">
-        <v>1638</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="398" spans="1:13">
@@ -22303,7 +22319,7 @@
     </row>
     <row r="399" spans="1:13">
       <c r="A399" s="6">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B399" s="7" t="s">
         <v>1634</v>
@@ -22315,78 +22331,78 @@
         <v>286</v>
       </c>
       <c r="E399" s="9" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="F399" s="9" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="G399" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H399" s="9">
-        <v>130.6</v>
+        <v>132.37</v>
       </c>
       <c r="I399" s="9">
-        <v>77.72</v>
+        <v>79.03</v>
       </c>
       <c r="J399" s="9">
-        <v>286.04000000000002</v>
+        <v>290.43</v>
       </c>
       <c r="K399" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L399" s="8" t="s">
-        <v>186</v>
+        <v>1637</v>
       </c>
       <c r="M399" s="8" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="400" spans="1:13">
       <c r="A400" s="6">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>1634</v>
+        <v>1541</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="D400" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E400" s="9" t="s">
-        <v>1644</v>
+        <v>1543</v>
       </c>
       <c r="F400" s="9" t="s">
-        <v>1645</v>
+        <v>1544</v>
       </c>
       <c r="G400" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H400" s="9">
-        <v>130.24</v>
+        <v>132.47999999999999</v>
       </c>
       <c r="I400" s="9">
-        <v>77.84</v>
+        <v>74.86</v>
       </c>
       <c r="J400" s="9">
-        <v>285.92</v>
+        <v>282.2</v>
       </c>
       <c r="K400" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L400" s="8" t="s">
-        <v>1646</v>
+        <v>587</v>
       </c>
       <c r="M400" s="8"/>
     </row>
     <row r="401" spans="1:13">
       <c r="A401" s="6">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>1634</v>
+        <v>1616</v>
       </c>
       <c r="C401" s="8" t="s">
         <v>1558</v>
@@ -22395,37 +22411,37 @@
         <v>286</v>
       </c>
       <c r="E401" s="9" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="F401" s="9" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="G401" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H401" s="9">
-        <v>132.63</v>
+        <v>132.49</v>
       </c>
       <c r="I401" s="9">
-        <v>76.05</v>
+        <v>78.83</v>
       </c>
       <c r="J401" s="9">
-        <v>284.73</v>
+        <v>290.14999999999998</v>
       </c>
       <c r="K401" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L401" s="8" t="s">
-        <v>186</v>
+        <v>1633</v>
       </c>
       <c r="M401" s="8"/>
     </row>
     <row r="402" spans="1:13">
       <c r="A402" s="6">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>1649</v>
+        <v>1616</v>
       </c>
       <c r="C402" s="8" t="s">
         <v>1558</v>
@@ -22434,37 +22450,39 @@
         <v>286</v>
       </c>
       <c r="E402" s="9" t="s">
-        <v>1650</v>
+        <v>1628</v>
       </c>
       <c r="F402" s="9" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="G402" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H402" s="9">
-        <v>135.75</v>
+        <v>132.6</v>
       </c>
       <c r="I402" s="9">
-        <v>76.98</v>
+        <v>81.14</v>
       </c>
       <c r="J402" s="9">
-        <v>289.70999999999998</v>
+        <v>294.88</v>
       </c>
       <c r="K402" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L402" s="8" t="s">
-        <v>1652</v>
-      </c>
-      <c r="M402" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="M402" s="8" t="s">
+        <v>1630</v>
+      </c>
     </row>
     <row r="403" spans="1:13">
       <c r="A403" s="6">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="C403" s="8" t="s">
         <v>1558</v>
@@ -22473,39 +22491,37 @@
         <v>286</v>
       </c>
       <c r="E403" s="9" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="F403" s="9" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="G403" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H403" s="9">
-        <v>130.9</v>
+        <v>132.63</v>
       </c>
       <c r="I403" s="9">
-        <v>76.61</v>
+        <v>76.05</v>
       </c>
       <c r="J403" s="9">
-        <v>284.12</v>
+        <v>284.73</v>
       </c>
       <c r="K403" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L403" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M403" s="8" t="s">
-        <v>1655</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M403" s="8"/>
     </row>
     <row r="404" spans="1:13">
       <c r="A404" s="6">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>1649</v>
+        <v>1616</v>
       </c>
       <c r="C404" s="8" t="s">
         <v>1558</v>
@@ -22514,78 +22530,80 @@
         <v>286</v>
       </c>
       <c r="E404" s="9" t="s">
-        <v>1656</v>
+        <v>1617</v>
       </c>
       <c r="F404" s="9" t="s">
-        <v>1657</v>
+        <v>1618</v>
       </c>
       <c r="G404" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H404" s="9">
-        <v>130.44999999999999</v>
+        <v>132.88999999999999</v>
       </c>
       <c r="I404" s="9">
-        <v>76.83</v>
+        <v>81.849999999999994</v>
       </c>
       <c r="J404" s="9">
-        <v>284.11</v>
+        <v>296.58999999999997</v>
       </c>
       <c r="K404" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L404" s="8" t="s">
-        <v>1658</v>
-      </c>
-      <c r="M404" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="M404" s="8" t="s">
+        <v>1619</v>
+      </c>
     </row>
     <row r="405" spans="1:13">
       <c r="A405" s="6">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>1649</v>
+        <v>1517</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>1558</v>
+        <v>1518</v>
       </c>
       <c r="D405" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E405" s="9" t="s">
-        <v>1659</v>
+        <v>1522</v>
       </c>
       <c r="F405" s="9" t="s">
-        <v>1660</v>
+        <v>1523</v>
       </c>
       <c r="G405" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H405" s="9">
-        <v>133.41</v>
+        <v>132.94999999999999</v>
       </c>
       <c r="I405" s="9">
-        <v>74.75</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="J405" s="9">
-        <v>282.91000000000003</v>
+        <v>291.93</v>
       </c>
       <c r="K405" s="9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L405" s="8" t="s">
-        <v>29</v>
+        <v>1524</v>
       </c>
       <c r="M405" s="8" t="s">
-        <v>1661</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="406" spans="1:13">
       <c r="A406" s="6">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>1662</v>
+        <v>1616</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>1558</v>
@@ -22594,39 +22612,39 @@
         <v>286</v>
       </c>
       <c r="E406" s="9" t="s">
-        <v>1663</v>
+        <v>1624</v>
       </c>
       <c r="F406" s="9" t="s">
-        <v>1664</v>
+        <v>1625</v>
       </c>
       <c r="G406" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H406" s="9">
-        <v>135.18</v>
+        <v>133.04</v>
       </c>
       <c r="I406" s="9">
-        <v>79.150000000000006</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="J406" s="9">
-        <v>293.48</v>
+        <v>295.06</v>
       </c>
       <c r="K406" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L406" s="8" t="s">
-        <v>1130</v>
+        <v>1626</v>
       </c>
       <c r="M406" s="8" t="s">
-        <v>1665</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="407" spans="1:13">
       <c r="A407" s="6">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>1558</v>
@@ -22635,37 +22653,39 @@
         <v>286</v>
       </c>
       <c r="E407" s="9" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="F407" s="9" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="G407" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H407" s="9">
-        <v>134.18</v>
+        <v>133.41</v>
       </c>
       <c r="I407" s="9">
-        <v>78.09</v>
+        <v>74.75</v>
       </c>
       <c r="J407" s="9">
-        <v>290.36</v>
+        <v>282.91000000000003</v>
       </c>
       <c r="K407" s="9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="L407" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="M407" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="M407" s="8" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="408" spans="1:13">
       <c r="A408" s="6">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>1662</v>
+        <v>1576</v>
       </c>
       <c r="C408" s="8" t="s">
         <v>1558</v>
@@ -22674,39 +22694,39 @@
         <v>286</v>
       </c>
       <c r="E408" s="9" t="s">
-        <v>1668</v>
+        <v>1577</v>
       </c>
       <c r="F408" s="9" t="s">
-        <v>1669</v>
+        <v>1578</v>
       </c>
       <c r="G408" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H408" s="9">
-        <v>127.03</v>
+        <v>134.06</v>
       </c>
       <c r="I408" s="9">
-        <v>79.790000000000006</v>
+        <v>81.44</v>
       </c>
       <c r="J408" s="9">
-        <v>286.61</v>
+        <v>296.94</v>
       </c>
       <c r="K408" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L408" s="8" t="s">
-        <v>1130</v>
+        <v>32</v>
       </c>
       <c r="M408" s="8" t="s">
-        <v>1670</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="409" spans="1:13">
       <c r="A409" s="6">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>1558</v>
@@ -22715,80 +22735,78 @@
         <v>286</v>
       </c>
       <c r="E409" s="9" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="F409" s="9" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="G409" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H409" s="9">
-        <v>124.53</v>
+        <v>134.18</v>
       </c>
       <c r="I409" s="9">
-        <v>76.92</v>
+        <v>78.09</v>
       </c>
       <c r="J409" s="9">
-        <v>278.37</v>
+        <v>290.36</v>
       </c>
       <c r="K409" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L409" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M409" s="8" t="s">
-        <v>1674</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M409" s="8"/>
     </row>
     <row r="410" spans="1:13">
       <c r="A410" s="6">
-        <v>407</v>
+        <v>59</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>1671</v>
+        <v>262</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>1558</v>
+        <v>244</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="E410" s="9" t="s">
-        <v>1675</v>
+        <v>263</v>
       </c>
       <c r="F410" s="9" t="s">
-        <v>1676</v>
+        <v>264</v>
       </c>
       <c r="G410" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H410" s="9">
-        <v>121.13</v>
+        <v>134.31</v>
       </c>
       <c r="I410" s="9">
-        <v>76.34</v>
+        <v>79.17</v>
       </c>
       <c r="J410" s="9">
-        <v>273.81</v>
+        <v>292.64999999999998</v>
       </c>
       <c r="K410" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="L410" s="8" t="s">
-        <v>1677</v>
+        <v>265</v>
       </c>
       <c r="M410" s="8" t="s">
-        <v>1678</v>
+        <v>207</v>
       </c>
     </row>
     <row r="411" spans="1:13">
       <c r="A411" s="6">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>1558</v>
@@ -22797,37 +22815,39 @@
         <v>286</v>
       </c>
       <c r="E411" s="9" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="F411" s="9" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="G411" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H411" s="9">
-        <v>122.89</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="I411" s="9">
-        <v>74.27</v>
+        <v>75.97</v>
       </c>
       <c r="J411" s="9">
-        <v>271.43</v>
+        <v>286.64</v>
       </c>
       <c r="K411" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L411" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M411" s="8"/>
+        <v>1689</v>
+      </c>
+      <c r="M411" s="8" t="s">
+        <v>1690</v>
+      </c>
     </row>
     <row r="412" spans="1:13">
       <c r="A412" s="6">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>1558</v>
@@ -22836,39 +22856,39 @@
         <v>286</v>
       </c>
       <c r="E412" s="9" t="s">
-        <v>1681</v>
+        <v>1663</v>
       </c>
       <c r="F412" s="9" t="s">
-        <v>1682</v>
+        <v>1664</v>
       </c>
       <c r="G412" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H412" s="9">
-        <v>124.22</v>
+        <v>135.18</v>
       </c>
       <c r="I412" s="9">
-        <v>72.849999999999994</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="J412" s="9">
-        <v>269.92</v>
+        <v>293.48</v>
       </c>
       <c r="K412" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L412" s="8" t="s">
-        <v>44</v>
+        <v>1130</v>
       </c>
       <c r="M412" s="8" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="413" spans="1:13">
       <c r="A413" s="6">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>1683</v>
+        <v>1607</v>
       </c>
       <c r="C413" s="8" t="s">
         <v>1558</v>
@@ -22877,80 +22897,78 @@
         <v>286</v>
       </c>
       <c r="E413" s="9" t="s">
-        <v>1684</v>
+        <v>1613</v>
       </c>
       <c r="F413" s="9" t="s">
-        <v>1685</v>
+        <v>1614</v>
       </c>
       <c r="G413" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H413" s="9">
-        <v>131.75</v>
+        <v>135.35</v>
       </c>
       <c r="I413" s="9">
-        <v>78.540000000000006</v>
+        <v>80.7</v>
       </c>
       <c r="J413" s="9">
-        <v>288.83</v>
+        <v>296.75</v>
       </c>
       <c r="K413" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L413" s="8" t="s">
-        <v>1686</v>
+        <v>35</v>
       </c>
       <c r="M413" s="8" t="s">
-        <v>1591</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="414" spans="1:13">
       <c r="A414" s="6">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>1683</v>
+        <v>1517</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1558</v>
+        <v>1518</v>
       </c>
       <c r="D414" s="8" t="s">
         <v>286</v>
       </c>
       <c r="E414" s="9" t="s">
-        <v>1687</v>
+        <v>1519</v>
       </c>
       <c r="F414" s="9" t="s">
-        <v>1688</v>
+        <v>1520</v>
       </c>
       <c r="G414" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H414" s="9">
-        <v>134.69999999999999</v>
+        <v>135.69</v>
       </c>
       <c r="I414" s="9">
-        <v>75.97</v>
+        <v>78.37</v>
       </c>
       <c r="J414" s="9">
-        <v>286.64</v>
+        <v>292.43</v>
       </c>
       <c r="K414" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L414" s="8" t="s">
-        <v>1689</v>
-      </c>
-      <c r="M414" s="8" t="s">
-        <v>1690</v>
-      </c>
+        <v>1521</v>
+      </c>
+      <c r="M414" s="8"/>
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="6">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>1691</v>
+        <v>1649</v>
       </c>
       <c r="C415" s="8" t="s">
         <v>1558</v>
@@ -22959,37 +22977,37 @@
         <v>286</v>
       </c>
       <c r="E415" s="9" t="s">
-        <v>1692</v>
+        <v>1650</v>
       </c>
       <c r="F415" s="9" t="s">
-        <v>1693</v>
+        <v>1651</v>
       </c>
       <c r="G415" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H415" s="9">
-        <v>144.19</v>
+        <v>135.75</v>
       </c>
       <c r="I415" s="9">
-        <v>75.510000000000005</v>
+        <v>76.98</v>
       </c>
       <c r="J415" s="9">
-        <v>295.20999999999998</v>
+        <v>289.70999999999998</v>
       </c>
       <c r="K415" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L415" s="8" t="s">
-        <v>472</v>
+        <v>1652</v>
       </c>
       <c r="M415" s="8"/>
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="6">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>1691</v>
+        <v>1616</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>1558</v>
@@ -22998,36 +23016,36 @@
         <v>286</v>
       </c>
       <c r="E416" s="9" t="s">
-        <v>1694</v>
+        <v>1620</v>
       </c>
       <c r="F416" s="9" t="s">
-        <v>1695</v>
+        <v>1621</v>
       </c>
       <c r="G416" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H416" s="9">
-        <v>129.62</v>
+        <v>140.07</v>
       </c>
       <c r="I416" s="9">
-        <v>79.89</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="J416" s="9">
-        <v>289.39999999999998</v>
+        <v>296.37</v>
       </c>
       <c r="K416" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L416" s="8" t="s">
-        <v>22</v>
+        <v>1622</v>
       </c>
       <c r="M416" s="8" t="s">
-        <v>1696</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="417" spans="1:13">
       <c r="A417" s="6">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>1691</v>
@@ -23039,73 +23057,73 @@
         <v>286</v>
       </c>
       <c r="E417" s="9" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="F417" s="9" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="G417" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H417" s="9">
-        <v>131.32</v>
+        <v>144.19</v>
       </c>
       <c r="I417" s="9">
-        <v>76.38</v>
+        <v>75.510000000000005</v>
       </c>
       <c r="J417" s="9">
-        <v>284.08</v>
+        <v>295.20999999999998</v>
       </c>
       <c r="K417" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L417" s="8" t="s">
-        <v>29</v>
+        <v>472</v>
       </c>
       <c r="M417" s="8"/>
     </row>
     <row r="418" spans="1:13">
       <c r="A418" s="6">
-        <v>415</v>
+        <v>60</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>1691</v>
+        <v>266</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1558</v>
+        <v>244</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="E418" s="9" t="s">
-        <v>1699</v>
+        <v>267</v>
       </c>
       <c r="F418" s="9" t="s">
-        <v>1700</v>
+        <v>268</v>
       </c>
       <c r="G418" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H418" s="9">
-        <v>131.15</v>
+        <v>188.81</v>
       </c>
       <c r="I418" s="9">
-        <v>75.89</v>
+        <v>75.7</v>
       </c>
       <c r="J418" s="9">
-        <v>282.93</v>
+        <v>264.51</v>
       </c>
       <c r="K418" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="L418" s="8" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="M418" s="8" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" hidden="1">
       <c r="A419" s="6">
         <v>416</v>
       </c>
@@ -23144,7 +23162,7 @@
       </c>
       <c r="M419" s="8"/>
     </row>
-    <row r="420" spans="1:13">
+    <row r="420" spans="1:13" hidden="1">
       <c r="A420" s="6">
         <v>417</v>
       </c>
@@ -23185,7 +23203,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="421" spans="1:13">
+    <row r="421" spans="1:13" hidden="1">
       <c r="A421" s="6">
         <v>418</v>
       </c>
@@ -23226,7 +23244,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="422" spans="1:13">
+    <row r="422" spans="1:13" hidden="1">
       <c r="A422" s="6">
         <v>419</v>
       </c>
@@ -23267,7 +23285,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" hidden="1">
       <c r="A423" s="6">
         <v>420</v>
       </c>
@@ -23308,7 +23326,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" hidden="1">
       <c r="A424" s="6">
         <v>421</v>
       </c>
@@ -23349,7 +23367,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" hidden="1">
       <c r="A425" s="6">
         <v>422</v>
       </c>
@@ -23390,7 +23408,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" hidden="1">
       <c r="A426" s="6">
         <v>423</v>
       </c>
@@ -23431,7 +23449,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" hidden="1">
       <c r="A427" s="6">
         <v>424</v>
       </c>
@@ -23470,7 +23488,7 @@
       </c>
       <c r="M427" s="8"/>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" hidden="1">
       <c r="A428" s="6">
         <v>425</v>
       </c>
@@ -23511,7 +23529,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="429" spans="1:13">
+    <row r="429" spans="1:13" hidden="1">
       <c r="A429" s="6">
         <v>426</v>
       </c>
@@ -23550,7 +23568,7 @@
       </c>
       <c r="M429" s="8"/>
     </row>
-    <row r="430" spans="1:13">
+    <row r="430" spans="1:13" hidden="1">
       <c r="A430" s="6">
         <v>427</v>
       </c>
@@ -23591,7 +23609,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="431" spans="1:13">
+    <row r="431" spans="1:13" hidden="1">
       <c r="A431" s="6">
         <v>428</v>
       </c>
@@ -23630,7 +23648,7 @@
       </c>
       <c r="M431" s="8"/>
     </row>
-    <row r="432" spans="1:13">
+    <row r="432" spans="1:13" hidden="1">
       <c r="A432" s="6">
         <v>429</v>
       </c>
@@ -23669,7 +23687,7 @@
       </c>
       <c r="M432" s="8"/>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" hidden="1">
       <c r="A433" s="6">
         <v>430</v>
       </c>
@@ -23708,7 +23726,7 @@
       </c>
       <c r="M433" s="8"/>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" hidden="1">
       <c r="A434" s="6">
         <v>431</v>
       </c>
@@ -23747,7 +23765,7 @@
       </c>
       <c r="M434" s="8"/>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" hidden="1">
       <c r="A435" s="6">
         <v>432</v>
       </c>
@@ -23788,7 +23806,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" hidden="1">
       <c r="A436" s="6">
         <v>433</v>
       </c>
@@ -23827,7 +23845,7 @@
       </c>
       <c r="M436" s="8"/>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" hidden="1">
       <c r="A437" s="6">
         <v>434</v>
       </c>
@@ -23868,7 +23886,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" hidden="1">
       <c r="A438" s="6">
         <v>435</v>
       </c>
@@ -23907,7 +23925,7 @@
       </c>
       <c r="M438" s="8"/>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" hidden="1">
       <c r="A439" s="6">
         <v>436</v>
       </c>
@@ -23948,7 +23966,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" hidden="1">
       <c r="A440" s="6">
         <v>437</v>
       </c>
@@ -23987,7 +24005,7 @@
       </c>
       <c r="M440" s="8"/>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" hidden="1">
       <c r="A441" s="6">
         <v>438</v>
       </c>
@@ -24026,7 +24044,7 @@
       </c>
       <c r="M441" s="8"/>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" hidden="1">
       <c r="A442" s="6">
         <v>439</v>
       </c>
@@ -24065,7 +24083,7 @@
       </c>
       <c r="M442" s="8"/>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" hidden="1">
       <c r="A443" s="6">
         <v>440</v>
       </c>
@@ -24104,7 +24122,7 @@
       </c>
       <c r="M443" s="8"/>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" hidden="1">
       <c r="A444" s="6">
         <v>441</v>
       </c>
@@ -24145,7 +24163,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" hidden="1">
       <c r="A445" s="6">
         <v>442</v>
       </c>
@@ -24186,7 +24204,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" hidden="1">
       <c r="A446" s="6">
         <v>443</v>
       </c>
@@ -24225,7 +24243,7 @@
       </c>
       <c r="M446" s="8"/>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" hidden="1">
       <c r="A447" s="6">
         <v>444</v>
       </c>
@@ -24266,7 +24284,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" hidden="1">
       <c r="A448" s="6">
         <v>445</v>
       </c>
@@ -24305,7 +24323,7 @@
       </c>
       <c r="M448" s="8"/>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" hidden="1">
       <c r="A449" s="6">
         <v>446</v>
       </c>
@@ -24346,7 +24364,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" hidden="1">
       <c r="A450" s="6">
         <v>447</v>
       </c>
@@ -24387,7 +24405,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" hidden="1">
       <c r="A451" s="6">
         <v>448</v>
       </c>
@@ -24428,7 +24446,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" hidden="1">
       <c r="A452" s="6">
         <v>449</v>
       </c>
@@ -24469,7 +24487,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" hidden="1">
       <c r="A453" s="6">
         <v>450</v>
       </c>
@@ -24508,7 +24526,7 @@
       </c>
       <c r="M453" s="8"/>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" hidden="1">
       <c r="A454" s="6">
         <v>451</v>
       </c>
@@ -24549,7 +24567,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" hidden="1">
       <c r="A455" s="6">
         <v>452</v>
       </c>
@@ -24588,7 +24606,7 @@
       </c>
       <c r="M455" s="8"/>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" hidden="1">
       <c r="A456" s="6">
         <v>453</v>
       </c>
@@ -24627,7 +24645,7 @@
       </c>
       <c r="M456" s="8"/>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" hidden="1">
       <c r="A457" s="6">
         <v>454</v>
       </c>
@@ -24668,7 +24686,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" hidden="1">
       <c r="A458" s="6">
         <v>455</v>
       </c>
@@ -24709,7 +24727,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" hidden="1">
       <c r="A459" s="6">
         <v>456</v>
       </c>
@@ -24750,7 +24768,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" hidden="1">
       <c r="A460" s="6">
         <v>457</v>
       </c>
@@ -24791,7 +24809,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" hidden="1">
       <c r="A461" s="6">
         <v>458</v>
       </c>
@@ -24832,7 +24850,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" hidden="1">
       <c r="A462" s="6">
         <v>459</v>
       </c>
@@ -24871,7 +24889,7 @@
       </c>
       <c r="M462" s="8"/>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" hidden="1">
       <c r="A463" s="6">
         <v>460</v>
       </c>
@@ -24910,7 +24928,7 @@
       </c>
       <c r="M463" s="8"/>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" hidden="1">
       <c r="A464" s="6">
         <v>461</v>
       </c>
@@ -24949,7 +24967,7 @@
       </c>
       <c r="M464" s="8"/>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" hidden="1">
       <c r="A465" s="6">
         <v>462</v>
       </c>
@@ -24990,7 +25008,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" hidden="1">
       <c r="A466" s="6">
         <v>463</v>
       </c>
@@ -25029,7 +25047,7 @@
       </c>
       <c r="M466" s="8"/>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" hidden="1">
       <c r="A467" s="6">
         <v>464</v>
       </c>
@@ -25068,7 +25086,7 @@
       </c>
       <c r="M467" s="8"/>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" hidden="1">
       <c r="A468" s="6">
         <v>465</v>
       </c>
@@ -25109,7 +25127,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" hidden="1">
       <c r="A469" s="6">
         <v>466</v>
       </c>
@@ -25148,7 +25166,7 @@
       </c>
       <c r="M469" s="8"/>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" hidden="1">
       <c r="A470" s="6">
         <v>467</v>
       </c>
@@ -25187,7 +25205,7 @@
       </c>
       <c r="M470" s="8"/>
     </row>
-    <row r="471" spans="1:13">
+    <row r="471" spans="1:13" hidden="1">
       <c r="A471" s="6">
         <v>468</v>
       </c>
@@ -25228,7 +25246,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" hidden="1">
       <c r="A472" s="6">
         <v>469</v>
       </c>
@@ -25270,6 +25288,23 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:M472" xr:uid="{55EAF2A8-FE24-0140-8C40-BD0D1DBE058B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="万载县财政局"/>
+        <filter val="万载县扶贫办公室"/>
+        <filter val="万载县公安局"/>
+        <filter val="万载县康乐街道办事处"/>
+        <filter val="万载县森林公安局"/>
+        <filter val="万载县退役军人事务局"/>
+        <filter val="万载县乡镇机关"/>
+        <filter val="万载县医疗保障局"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:M418">
+      <sortCondition ref="H3:H472"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:M2"/>
